--- a/1. 장고란 무엇인가/장고진도상황.xlsx
+++ b/1. 장고란 무엇인가/장고진도상황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\컴퓨터공부\1. 장고란 무엇인가\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF2D0E-709E-44AA-B4C3-6D61AD5EDA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F43B9-2154-4745-9FDF-875AC2B4668E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="430" windowWidth="13060" windowHeight="13750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="50" windowWidth="16520" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>day 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,18 +417,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅑ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>models.py 다음과 같이 수정:</t>
+    <t>모델 재설계 - Django (opentutorials.org)</t>
+  </si>
+  <si>
+    <t>day4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>models.py 다음과 같이 수정:
+1. pubdate는 auto_now_add =True를 지정해주어 작성자가 값을 입력하지 않아도 입력되도록 함
+2. author: 장고에서는 USER라는 모델을 기본적으로 제공하는데 다음과 같이 외래키로 설정하면 User테이블의
+              주키를 참조할수있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forms.py 다음과 같이 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위와 같이 수정 후 명령어 입력:
+makemigrations / migrate
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[tools]-[run manage.py task] 클릭 
 -&gt; 명령어 입력: makemigrations / migrate --fake
 * make makemigrations 모델을 변경시킨 사실 또는 생성한 모델에 대한 migration을 읽어볼수있다.
- 수동으로 django의 변경점을 조정하고 싶을때 변경</t>
+ 수동으로 django의 변경점을 조정하고 싶을때 변경
+※ migration: 
+1. 모델 변경내역 히스토리 관리
+2. 모델의 변경 내역을 스키마(데이터 베이스 구조)로 반영시키는 효율적인 방법 제공
+3. 명령어:
+명령어 종류:
+makemigrations: 마이그레이션 파일(초안) 생성
+migrate: 마이그레이션 적용
+migrate --fake: 마이그레이션 적용 (새로운 항목 추가시 오류 안남)
+showmigration: 마이그레이션 적용 현황
+sqlmigrate: 지정 마이그레이션 sql 내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +466,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +479,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -469,10 +507,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -489,9 +528,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1573,13 +1616,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38055</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>480784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4401884</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>3988961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1622,13 +1665,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>36287</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>332871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7513606</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>3202227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1671,13 +1714,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>18143</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>299356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2323515</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>1128147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1714,22 +1757,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>30593</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>743856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6160400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3246309</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="그림 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360D6A6C-0DB1-4324-90EE-DE22A1E54A2A}"/>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1327727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7477990</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>3879272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D708D11-D5F2-4361-B431-5881AE1D0660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1745,8 +1788,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3250950" y="106652785"/>
-          <a:ext cx="6129807" cy="2502453"/>
+          <a:off x="3221181" y="109173818"/>
+          <a:ext cx="7477991" cy="2551545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>311728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6788727</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2974770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A82A64B-FBCA-4A60-A3E7-BCE93A22A5ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3255818" y="112071728"/>
+          <a:ext cx="6754091" cy="2663042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2021,9 +2108,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -2383,7 +2470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -2394,7 +2481,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
@@ -2405,7 +2492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -2416,7 +2503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="369" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="369" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -2427,7 +2514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
@@ -2438,29 +2525,31 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="316.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="253.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="5"/>
+      <c r="D38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="316.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="90.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="253.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
@@ -2468,10 +2557,10 @@
         <v>78</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="90.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -2479,10 +2568,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="257.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="296.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -2490,95 +2579,121 @@
         <v>78</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="308.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="237" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="3"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="3"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:3" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>2</v>
-      </c>
+    <row r="48" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D38" r:id="rId1" display="https://opentutorials.org/module/4034/24716" xr:uid="{B4AF7C04-E59B-4A20-B0FA-844303C9E11F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/1. 장고란 무엇인가/장고진도상황.xlsx
+++ b/1. 장고란 무엇인가/장고진도상황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\컴퓨터공부\1. 장고란 무엇인가\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5F43B9-2154-4745-9FDF-875AC2B4668E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB15246-6CB4-4ED6-A177-C9E2D0201405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="50" windowWidth="16520" windowHeight="14750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10520" yWindow="3960" windowWidth="13630" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
   <si>
     <t>day 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +459,76 @@
 migrate --fake: 마이그레이션 적용 (새로운 항목 추가시 오류 안남)
 showmigration: 마이그레이션 적용 현황
 sqlmigrate: 지정 마이그레이션 sql 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.CKEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">목표: body의 글자를 예쁘게 꾸밀 수 있는 텍스트 편집기를 사용해보자
+1. 터미널 명령어 통해 ckeditor설치 : pip install django-ckeditor
+2. settings.py &gt; INSTALLED_APPS &gt; 'ckeditor'추가
+3. blogapp&gt; models.py 다음과 같이 변경:
+  1) from ckeditor.fields import RichTextField 추가
+  2) body = RichTextField() 로 변경
+4. 데이터베이스 모델 적용: 
+   1) Tools - Run mangage.py Task 열고 명령어 입력
+   2) makemigrations &gt; migrate
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5. firstoroject - settings.py 가장 아래에 STATIC_ROOT가 있는지 확인한다.
+  - 없을 경우 추가해줘야 한다. 
+  - 이 작업을 해주는 이유는 CKEditor가 핵심 코드가 자바스크립트로 이루어져 있기 때문에
+   이를 static으로 모아주어야한다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Tools - Run manage.py Task를 열고 collectstatic -&gt; yes 입력
+7. 적용 확인 -&gt; 서버 구동 후 admin 페이지에서 블로그 생성 페이지로 들어가 툴이 나타났는지 확인해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이미지 파일 업로드 기능을 구현하기 위해 추가적으로 코드를 설정해주자
+1. settings.py -&gt; INSTALLED_APPS에 'ckeditor_uploader' 추가
+2. 경로지정을 위해 settings.py 에 CKEDITOR_UPLOAD_PATH = "uploads/" 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. settings.py 맨 아래에 다음 2줄 추가
+MEDIA_URL = '/media/'
+MEDIA_ROOT = 'media/'
+( 지금까지 정적 파일들은 static 루트에 모아두었다. 마찬가지로 올리는 파일들은 media로 분류가 되면 media루트를 설정해주는 것)
+4. firstproject1 - urls.py 에서 url 추가
+1) from django.conf.urls import include 추가
+2) urlpatterns - path('ckeditor/', include('ckeditor_uploader.urls')), 추가
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* MEDIA 경로를 참조하기 위해 다음을 추가하도록 합니다.
+5. urls.py 수정
+1)
+from django.conf import settings
+from django.conf.urls.static import static 추가
+2) 맨 아래줄 urlpatterns += static(settings.MEDIA_URL, document_root=settings.MEDIA_ROOT)
+6. models.py 에서 파일 업로드 필드로 적용시키기 위해 다음과 같이 수정
+from ckeditor_uploader.fields import RichTextUploadingField 추가
+body = RichTextUploadingField() 로 변경
+7. models.py 가 변경 되었으니 Tools -&gt; run manage.py task -&gt; makemigrations -&gt; mirgrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) upload버튼 눌러 이미지를 추가한 후 send it to the server버튼 클릭
+2) save 버튼을 눌러 이미지를 저장하면 우리가 설정한 경로로 media/uploads에 ckeditor가 날짜로 디렉토리 생성하고
+ 파일을 생성한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1082,15 +1152,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>18143</xdr:colOff>
+      <xdr:colOff>10673</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>943428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5552940</xdr:colOff>
+      <xdr:rowOff>1339369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5545470</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>3467905</xdr:rowOff>
+      <xdr:rowOff>3863846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1113,7 +1183,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="46935571"/>
+          <a:off x="3230497" y="47350722"/>
           <a:ext cx="5534797" cy="2524477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1289,8 +1359,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3247572" y="61872237"/>
-          <a:ext cx="8799006" cy="4231763"/>
+          <a:off x="3247039" y="62481623"/>
+          <a:ext cx="8801139" cy="4231763"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,7 +1385,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>6029258</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>4092</xdr:rowOff>
+      <xdr:rowOff>4093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,7 +1473,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>6000222</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>12413</xdr:rowOff>
+      <xdr:rowOff>12412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1834,6 +1904,226 @@
         <a:xfrm>
           <a:off x="3255818" y="112071728"/>
           <a:ext cx="6754091" cy="2663042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59765</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2425294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7307376</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>4966416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C261DDC-6AFA-4649-8E16-935126294ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3279589" y="121005941"/>
+          <a:ext cx="7247611" cy="2541122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37352</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>972480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7120005</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>2081348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E7F1A9-6E88-47CF-ACCD-D4BDD763436F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257176" y="124543480"/>
+          <a:ext cx="7082653" cy="1108868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>739589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2569882</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>3006499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EBD2CA-A970-47BF-86E4-EE8C51F624A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3234765" y="127059765"/>
+          <a:ext cx="2554941" cy="2266910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2554938</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>937238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2931937</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3703963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50A0B33-446F-4E97-AD23-8434FFF3BFBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3212350" y="136027885"/>
+          <a:ext cx="2939411" cy="2766725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3324412</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>859118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7515997</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2897753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA6A743-005C-4B28-BB25-558F40B50C87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6544236" y="135949765"/>
+          <a:ext cx="4191585" cy="2038635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2108,10 +2398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2256,7 +2546,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -2349,7 +2639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="273.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="304.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2615,75 +2905,135 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="3"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="3"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" ht="393" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="168.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="239" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="191" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="260.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+      <c r="B51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" s="3" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/1. 장고란 무엇인가/장고진도상황.xlsx
+++ b/1. 장고란 무엇인가/장고진도상황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\컴퓨터공부\1. 장고란 무엇인가\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB15246-6CB4-4ED6-A177-C9E2D0201405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233B611-E1A8-42EC-BCF5-F74ADED8494F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="3960" windowWidth="13630" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11540" yWindow="850" windowWidth="13910" windowHeight="13210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
   <si>
     <t>day 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,9 +415,6 @@
   <si>
     <t>[blogap] - [migrations]에서 __init__.py 를 제외한 모든 폴더 제거</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델 재설계 - Django (opentutorials.org)</t>
   </si>
   <si>
     <t>day4</t>
@@ -529,6 +526,47 @@
     <t>1) upload버튼 눌러 이미지를 추가한 후 send it to the server버튼 클릭
 2) save 버튼을 눌러 이미지를 저장하면 우리가 설정한 경로로 media/uploads에 ckeditor가 날짜로 디렉토리 생성하고
  파일을 생성한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://opentutorials.org/module/4034/24716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25. 글쓰기 페이지 꾸미기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 토픽에선 CKEDITOR를 활용하여 이미지 업로딩 기능을 구현해보았는데
+admin 페이지에서는 구현이 되었으나 글쓰기 페이지에선 적용이 되지 않았으므로 적용시켜주자
+추가할 코드:
+from ckeditor_uploader.widgets import CKEditorUploadingWidget
+widgets = {
+            'title': forms.TextInput(
+                attrs={'class': 'form-control', 'style': 'width: 100%', 'placeholder': '제목을 입력하세요.'}
+            ),
+            'author': forms.Select(
+                attrs={'class': 'custom-select'},
+            ),
+            'body': forms.CharField(widget=CKEditorUploadingWidget()),
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위젯을 지정하면 장고에서 자체적으로 제공하는 폼의 형태를 빌려올 수 있다.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createBlog.html 을 다음과 같이 수정하면 다음과 같이 창이 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.블로그 메인화면 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +637,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1686,13 +1724,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38055</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>480784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4401884</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>3988961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1735,13 +1773,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>36287</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>332871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7513606</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>3202227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1784,13 +1822,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>18143</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>299356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2323515</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1128147</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1828,13 +1866,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1327727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7477990</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>3879272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1872,13 +1910,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>311728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6788727</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>2974770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1916,13 +1954,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>59765</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>2425294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7307376</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>4966416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1960,13 +1998,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>37352</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>972480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7120005</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>2081348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2004,13 +2042,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>739589</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2569882</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>3006499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2048,13 +2086,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2554938</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>937238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2931937</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>3703963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2092,13 +2130,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3324412</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>859118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7515997</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>2897753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2124,6 +2162,143 @@
         <a:xfrm>
           <a:off x="6544236" y="135949765"/>
           <a:ext cx="4191585" cy="2038635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3331696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3817470</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>5180038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5DE008-CB18-4821-A669-B0D0D6E68D96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219823" y="140812931"/>
+          <a:ext cx="3817471" cy="1848342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>277807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3470330</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>3443945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="그림 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D5C308-6A49-40D5-B7FF-72A012AD7C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3242236" y="143302219"/>
+          <a:ext cx="3447918" cy="3166138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3463301</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>253999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7395883</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>3462275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDFEC246-1947-4DFA-9B84-16AFD70911E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683125" y="143278411"/>
+          <a:ext cx="3932582" cy="3208276"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2398,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2435,6 +2610,9 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
@@ -2760,7 +2938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" ht="309.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -2771,7 +2949,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" ht="93" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
@@ -2782,7 +2960,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
@@ -2793,7 +2971,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="369" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" ht="369" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -2804,7 +2982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" ht="115.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
@@ -2815,31 +2993,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="115.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" ht="316.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="316.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="253.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="253.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="90.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
@@ -2847,10 +3023,10 @@
         <v>78</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="90.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="296.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>77</v>
       </c>
@@ -2858,10 +3034,10 @@
         <v>78</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="296.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="308.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
@@ -2869,12 +3045,12 @@
         <v>78</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="308.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="237" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>78</v>
@@ -2883,164 +3059,190 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="237" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="393" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="393" customHeight="1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="168.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="168.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" ht="48.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="48.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" ht="239" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="239" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" ht="191" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="191" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="260.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="260.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="303.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="275" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="73" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1" display="https://opentutorials.org/module/4034/24716" xr:uid="{B4AF7C04-E59B-4A20-B0FA-844303C9E11F}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B43B4E3E-66B6-4612-8E10-172A81075ACC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/1. 장고란 무엇인가/장고진도상황.xlsx
+++ b/1. 장고란 무엇인가/장고진도상황.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\컴퓨터공부\1. 장고란 무엇인가\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233B611-E1A8-42EC-BCF5-F74ADED8494F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD01822-28FB-40D6-B4E1-06BC4650011F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="850" windowWidth="13910" windowHeight="13210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11590" yWindow="1300" windowWidth="13910" windowHeight="13210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="108">
   <si>
     <t>day 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,6 +567,50 @@
   </si>
   <si>
     <t>26.블로그 메인화면 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기에서 쓴 내용을 블로그 메인화면에서 출력해보자
+1. blogapp - views.py 에서 blogMain() 함수를 수정(추가)하기: 
+from .models import Blog
+def blogMain(request):
+    blogs = Blog.objects.all()
+    return render(request, 'blogMain.html', {'blogs': blogs})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2. html 수정: 추가하기:
+&lt;main role="main" class="container"&gt;
+            &lt;div class="jumbotron"&gt;
+                &lt;h1&gt;제목 : {{ blog.title }}&lt;/h1&gt;
+                &lt;br&gt;
+                &lt;h4&gt;작성일 : {{ blog.pub_date }}&lt;/h4&gt;
+                &lt;br&gt;
+                &lt;h4&gt;작성자 : {{ blog.author }}&lt;/h4&gt;
+                &lt;br&gt;
+                &lt;p class="lead"&gt;{{ blog.body }}&lt;/p&gt;
+                &lt;br&gt;
+                &lt;a class="btn btn-lg btn-primary"
+                   href="{{ site.baseurl }}/docs/{{ site.docs_version }}/components/navbar/"
+                   role="button"&gt;View navbar docs &amp;raquo;&lt;/a&gt;
+            &lt;/div&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 추가수정하기: 
+1) 작성일에서 잘못된 날짜는 협정 세계시를 사용하기 때문이다. 이를 수정하기위해 settings.py를 수정봅시다:
+# LANGUAGE_CODE = 'en-us'
+LANGUAGE_CODE = 'ko-kr'
+# TIME_ZONE = 'UTC'
+TIME_ZONE = 'Asia/Seoul'
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 내용에서 원하지 않는 태그가 섞여 나오는 경우가 있다.
+장고는 기본적으로 &lt;,&gt;,&amp; 등의 문자를 자동적으로 escape한다. blogMain.html을 다음과 같이 수정해주자
+: {{ blog.body | safe }}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2299,6 +2343,50 @@
         <a:xfrm>
           <a:off x="6683125" y="143278411"/>
           <a:ext cx="3932582" cy="3208276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14940</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>784745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4624499</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>2342725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62573ACB-C3AD-46D0-BB89-873B862725D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3234764" y="155493157"/>
+          <a:ext cx="4609559" cy="1557980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2573,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3180,62 +3268,92 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="73" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" ht="173" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C55" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="322.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="149.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="187" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
         <v>13</v>
       </c>
     </row>
